--- a/trend_results/Rivers/LHorowhenuaInflowatLindsayRoad_afd3a8ba71.xlsx
+++ b/trend_results/Rivers/LHorowhenuaInflowatLindsayRoad_afd3a8ba71.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.107579941598096</v>
+        <v>0.892420058401904</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.998076487582793</v>
+        <v>0.001923512417207</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0020540813132472</v>
+        <v>0.997945918686753</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.949651207044108</v>
+        <v>0.050348792955892</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">

--- a/trend_results/Rivers/LHorowhenuaInflowatLindsayRoad_afd3a8ba71.xlsx
+++ b/trend_results/Rivers/LHorowhenuaInflowatLindsayRoad_afd3a8ba71.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.775530345924983</v>
+        <v>0.6279938481499</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.29</v>
+        <v>0.305</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0071617647058823</v>
+        <v>0.0031141900121802</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0166144750578896</v>
+        <v>-0.0233642897287137</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03395843374591</v>
+        <v>0.0245587489975858</v>
       </c>
       <c r="N2" t="n">
-        <v>2.46957403651116</v>
+        <v>1.02104590563288</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.892420058401904</v>
+        <v>0.705746822364145</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -676,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.63</v>
+        <v>6.985</v>
       </c>
       <c r="K3" t="n">
-        <v>0.138883564606835</v>
+        <v>0.157520215633423</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.231701810628977</v>
+        <v>-0.245179544984037</v>
       </c>
       <c r="M3" t="n">
-        <v>0.350502813589982</v>
+        <v>0.424420997016757</v>
       </c>
       <c r="N3" t="n">
-        <v>2.09477473011818</v>
+        <v>2.25512119732889</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0001921540028647</v>
+        <v>0.0040753262015279</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.666666666666667</v>
+        <v>0.68</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0295</v>
+        <v>0.03</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00559661344484</v>
+        <v>0.0040433579335793</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0027510331080258</v>
+        <v>0.0013308331885552</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0084725415197367</v>
+        <v>0.0069865147350624</v>
       </c>
       <c r="N4" t="n">
-        <v>18.9715709994579</v>
+        <v>13.4778597785978</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.0409184759503222</v>
+        <v>0.392962016698089</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0625</v>
+        <v>0.02</v>
       </c>
       <c r="H5" t="n">
-        <v>0.854166666666667</v>
+        <v>0.92</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="K5" t="n">
-        <v>37.0651800677305</v>
+        <v>4.06397774687065</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-24.1520431699868</v>
       </c>
       <c r="M5" t="n">
-        <v>111.149772322623</v>
+        <v>60.091196190851</v>
       </c>
       <c r="N5" t="n">
-        <v>9.75399475466593</v>
+        <v>1.14478246390723</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.731147159239616</v>
+        <v>0.746261265700216</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.152231115020971</v>
+        <v>0.124880032155577</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0071573107427906</v>
+        <v>-0.0069722494808167</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0294874813807209</v>
+        <v>-0.0322767091540644</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0135484715179659</v>
+        <v>0.009377540489473099</v>
       </c>
       <c r="N6" t="n">
-        <v>-4.70160830248444</v>
+        <v>-5.58315798007695</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1028,31 +1028,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.235690226121743</v>
+        <v>0.961301607257246</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8125</v>
+        <v>0.74</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0395</v>
+        <v>0.0365</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002120504642815</v>
+        <v>-0.0044644766997708</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0038735379726787</v>
+        <v>-0.008998602952557701</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0057614990154729</v>
+        <v>-0.0002659132595577</v>
       </c>
       <c r="N7" t="n">
-        <v>5.3683661843418</v>
+        <v>-12.2314430130707</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.316776737688417</v>
+        <v>0.988194283109269</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.916666666666667</v>
+        <v>0.92</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.86</v>
+        <v>1.825</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0378097085662875</v>
+        <v>-0.146301795580111</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.102149584403605</v>
+        <v>-0.211536071433998</v>
       </c>
       <c r="M8" t="n">
-        <v>0.107061725455826</v>
+        <v>-0.0476448569471951</v>
       </c>
       <c r="N8" t="n">
-        <v>2.03278003044557</v>
+        <v>-8.016536744115641</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.001923512417207</v>
+        <v>0.142000044089607</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.770833333333333</v>
+        <v>0.74</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>6.975</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0714777445650125</v>
+        <v>-0.0249034090909093</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.115569149893381</v>
+        <v>-0.0687011639235786</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0277224491171009</v>
+        <v>0.0160089092223674</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.02111063664304</v>
+        <v>-0.357038123167158</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.804585884574005</v>
+        <v>0.999923765273089</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.979166666666667</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.2575</v>
+        <v>2.189</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0354153969807101</v>
+        <v>-0.127800204220558</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.106286688512006</v>
+        <v>-0.236109898339057</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0393829981021252</v>
+        <v>-0.0948469345376764</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.56878834909015</v>
+        <v>-5.83829165009402</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,46 +1373,46 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.514210790675811</v>
+        <v>0.947705868585522</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0208333333333333</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.583333333333333</v>
+        <v>0.98</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>9.5</v>
+        <v>3.415</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0.102887323943662</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.27985715391302</v>
+        <v>-0.210775868593811</v>
       </c>
       <c r="M11" t="n">
-        <v>1.71614191927037</v>
+        <v>-0.0079491934860515</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>-3.01280597199595</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.6051313439509221</v>
+        <v>0.440144617020169</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.979166666666667</v>
+        <v>0.9</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3.555</v>
+        <v>0.1215</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0227709763385286</v>
+        <v>0.000862455726092</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.110817228630069</v>
+        <v>-0.011156390207955</v>
       </c>
       <c r="M12" t="n">
-        <v>0.106802408436456</v>
+        <v>0.0112202515641362</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.640533792926263</v>
+        <v>0.709840103779498</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.217018536436318</v>
+        <v>0.483317636138455</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.895833333333333</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.123</v>
+        <v>11.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0046110475224572</v>
+        <v>0.0859411764705883</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0057777126299879</v>
+        <v>-1.47439898256216</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0178529218448179</v>
+        <v>1.59207631915368</v>
       </c>
       <c r="N13" t="n">
-        <v>3.74881912394898</v>
+        <v>0.7605413846954719</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.598278853360381</v>
+        <v>0.129716819433888</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9375</v>
+        <v>0.577464788732394</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>13.25</v>
+        <v>0.31</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.282048537118196</v>
+        <v>-0.0064236721772775</v>
       </c>
       <c r="L14" t="n">
-        <v>-2.24497676982266</v>
+        <v>-0.016964662776268</v>
       </c>
       <c r="M14" t="n">
-        <v>1.20071424641082</v>
+        <v>0.0019229055593768</v>
       </c>
       <c r="N14" t="n">
-        <v>-2.12866820466563</v>
+        <v>-2.07215231525082</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.011541411949244</v>
+        <v>0.996117914564226</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.630769230769231</v>
+        <v>0.971698113207547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.31</v>
+        <v>6.24</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0180616898720724</v>
+        <v>0.184828727131179</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0313127522814081</v>
+        <v>0.08294118449345141</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.003770772659511</v>
+        <v>0.314594818452064</v>
       </c>
       <c r="N15" t="n">
-        <v>-5.82635157163627</v>
+        <v>2.96199883223044</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.997945918686753</v>
+        <v>0.0484968845457638</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.97029702970297</v>
+        <v>0.420560747663551</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>5.85</v>
+        <v>0.029</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1706303146521</v>
+        <v>0.0006313742437337</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07694985102283421</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.247665267438984</v>
+        <v>0.0013173392583268</v>
       </c>
       <c r="N16" t="n">
-        <v>2.91675751542051</v>
+        <v>2.17715256459929</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.009439904870346001</v>
+        <v>0.380968711657813</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.0280373831775701</v>
       </c>
       <c r="H17" t="n">
-        <v>0.431372549019608</v>
+        <v>0.785046728971963</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0285</v>
+        <v>360</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0010117728531856</v>
+        <v>1.42843175596402</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002472331537258</v>
+        <v>-11.2303633731787</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0017745230465323</v>
+        <v>9.570232667438651</v>
       </c>
       <c r="N17" t="n">
-        <v>3.55008018661613</v>
+        <v>0.396786598878895</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.589492023170994</v>
+        <v>0.957187718230434</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.09803921568627449</v>
       </c>
       <c r="H18" t="n">
-        <v>0.794117647058823</v>
+        <v>0.911764705882353</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>380</v>
+        <v>0.165408011479781</v>
       </c>
       <c r="K18" t="n">
-        <v>-1.5</v>
+        <v>-0.0046872554972379</v>
       </c>
       <c r="L18" t="n">
-        <v>-16.4456133320221</v>
+        <v>-0.0112943649730454</v>
       </c>
       <c r="M18" t="n">
-        <v>9.60551642585205</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.394736842105263</v>
+        <v>-2.83375361042347</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.527717238432262</v>
+        <v>0.918525423640615</v>
       </c>
       <c r="G19" t="n">
-        <v>0.123711340206186</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.88659793814433</v>
+        <v>0.588785046728972</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.163034256879262</v>
+        <v>0.039</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.000833904109589</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0049971091771679</v>
+        <v>-0.0020026476922105</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0041431266116764</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-2.13821566561293</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.337131867938372</v>
+        <v>0.93069674716984</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.637254901960784</v>
+        <v>0.897196261682243</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.041</v>
+        <v>1.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0002496582365003</v>
+        <v>-0.021100365630713</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0008668614395597</v>
+        <v>-0.0488964754751373</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0017050304002294</v>
+        <v>0.0022357204974441</v>
       </c>
       <c r="N20" t="n">
-        <v>0.608922528049615</v>
+        <v>-1.17224253503961</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.151143195455267</v>
+        <v>0.035532027186813</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.931372549019608</v>
+        <v>0.594339622641509</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.85415</v>
+        <v>7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0180497087045922</v>
+        <v>-0.0140914351851851</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.005821812273695</v>
+        <v>-0.0274390317710559</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0401739443548079</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.973476186101027</v>
+        <v>-0.201306216931216</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Hoki_1a</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.050348792955892</v>
+        <v>0.9953132151712279</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.61</v>
+        <v>0.953271028037383</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0138090792069145</v>
+        <v>-0.0423862194016318</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0281583067767258</v>
+        <v>-0.0690975486696306</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-0.0192047566990717</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.197272560098778</v>
+        <v>-1.92664633643781</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Hoki_1a</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.18336914771479</v>
+        <v>0.973411744571131</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.950980392156863</v>
+        <v>0.94392523364486</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.2575</v>
+        <v>3.45</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0145269886363639</v>
+        <v>-0.03973708068903</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.018342921481695</v>
+        <v>-0.0650598104497682</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0376172153320271</v>
+        <v>-0.004917716526608</v>
       </c>
       <c r="N23" t="n">
-        <v>0.643498942917558</v>
+        <v>-1.15179944026174</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2563,35 +2563,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.538796115383651</v>
+        <v>0.174169372766778</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0392156862745098</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.450980392156863</v>
+        <v>0.766355140186916</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>10.5</v>
+        <v>0.122</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.0019868540344515</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.334128564236754</v>
+        <v>-0.0012483610849584</v>
       </c>
       <c r="M24" t="n">
-        <v>0.650992546788454</v>
+        <v>0.00462614042747</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.62856888069795</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.20097928278234</v>
+        <v>0.73719264818668</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.950980392156863</v>
+        <v>0.94392523364486</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.497</v>
+        <v>14.4</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0167767613857532</v>
+        <v>-0.14659693877551</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0155040123622743</v>
+        <v>-0.65513690491301</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0605010824723487</v>
+        <v>0.287235057793195</v>
       </c>
       <c r="N25" t="n">
-        <v>0.479747251522825</v>
+        <v>-1.01803429705215</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2721,188 +2721,6 @@
         </is>
       </c>
       <c r="W25" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at Lindsay Road</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>10</v>
-      </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0.0070940844114271</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.813725490196078</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.121</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.0044724489795918</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.0019568639613571</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.008013314979098801</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.69623882610896</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Exceptionally unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
-        <v>1791973.7</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5504665</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at Lindsay Road</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>10</v>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0.461459521820236</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.9411764705882349</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.0428697183098588</v>
-      </c>
-      <c r="L27" t="n">
-        <v>-0.369598171051327</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.725068479011544</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.300840128490237</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>1791973.7</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5504665</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/LHorowhenuaInflowatLindsayRoad_afd3a8ba71.xlsx
+++ b/trend_results/Rivers/LHorowhenuaInflowatLindsayRoad_afd3a8ba71.xlsx
@@ -127,6 +127,9 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>RepSite</t>
   </si>
   <si>
@@ -136,34 +139,31 @@
     <t>Likely increasing</t>
   </si>
   <si>
-    <t>Exceptionally unlikely improving</t>
+    <t>Extremely unlikely improving</t>
   </si>
   <si>
     <t>Likely improving</t>
   </si>
   <si>
+    <t>Very likely increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
     <t>Unlikely increasing</t>
   </si>
   <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
     <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
   </si>
   <si>
     <t>Horowhenua District</t>
@@ -642,37 +642,37 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.6279938481499</v>
+        <v>0.612663957028606</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.764705882352941</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.305</v>
+        <v>0.31</v>
       </c>
       <c r="K2">
-        <v>0.0031141900121802</v>
+        <v>0.0032572243663045</v>
       </c>
       <c r="L2">
-        <v>-0.0233642897287137</v>
+        <v>-0.0181991869001552</v>
       </c>
       <c r="M2">
-        <v>0.0245587489975858</v>
+        <v>0.0237565632213723</v>
       </c>
       <c r="N2">
-        <v>1.02104590563288</v>
+        <v>1.0507175375176</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q2">
         <v>1791973.7</v>
@@ -713,37 +713,37 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.705746822364145</v>
+        <v>0.881546678608342</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.985</v>
+        <v>7.075</v>
       </c>
       <c r="K3">
-        <v>0.157520215633423</v>
+        <v>0.218266270172174</v>
       </c>
       <c r="L3">
-        <v>-0.245179544984037</v>
+        <v>-0.0936076439435153</v>
       </c>
       <c r="M3">
-        <v>0.424420997016757</v>
+        <v>0.345012165955492</v>
       </c>
       <c r="N3">
-        <v>2.25512119732889</v>
+        <v>3.08503562080812</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q3">
         <v>1791973.7</v>
@@ -784,37 +784,37 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.0040753262015279</v>
+        <v>0.0186966696883667</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.68</v>
+        <v>0.586206896551724</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03</v>
+        <v>0.0285</v>
       </c>
       <c r="K4">
-        <v>0.0040433579335793</v>
+        <v>0.0018354271356783</v>
       </c>
       <c r="L4">
-        <v>0.0013308331885552</v>
+        <v>0.0004054095404575</v>
       </c>
       <c r="M4">
-        <v>0.0069865147350624</v>
+        <v>0.0040460405489746</v>
       </c>
       <c r="N4">
-        <v>13.4778597785978</v>
+        <v>6.44009521290664</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q4">
         <v>1791973.7</v>
@@ -855,37 +855,37 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.392962016698089</v>
+        <v>0.697089154723832</v>
       </c>
       <c r="G5">
-        <v>0.02</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H5">
-        <v>0.92</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="K5">
-        <v>4.06397774687065</v>
+        <v>-8.027277401742641</v>
       </c>
       <c r="L5">
-        <v>-24.1520431699868</v>
+        <v>-61.646776575484</v>
       </c>
       <c r="M5">
-        <v>60.091196190851</v>
+        <v>36.9293255158755</v>
       </c>
       <c r="N5">
-        <v>1.14478246390723</v>
+        <v>-2.447340671263</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q5">
         <v>1791973.7</v>
@@ -926,7 +926,7 @@
         <v>36</v>
       </c>
       <c r="F6">
-        <v>0.746261265700216</v>
+        <v>0.771579358470718</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.124880032155577</v>
+        <v>0.129024027511924</v>
       </c>
       <c r="K6">
-        <v>-0.0069722494808167</v>
+        <v>-0.0074899607817041</v>
       </c>
       <c r="L6">
-        <v>-0.0322767091540644</v>
+        <v>-0.0278847821694148</v>
       </c>
       <c r="M6">
-        <v>0.009377540489473099</v>
+        <v>0.0093734575384484</v>
       </c>
       <c r="N6">
-        <v>-5.58315798007695</v>
+        <v>-5.80508989382763</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q6">
         <v>1791973.7</v>
@@ -997,34 +997,34 @@
         <v>36</v>
       </c>
       <c r="F7">
-        <v>0.961301607257246</v>
+        <v>0.785797075036483</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.74</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0365</v>
+        <v>0.0345</v>
       </c>
       <c r="K7">
-        <v>-0.0044644766997708</v>
+        <v>-0.001740943755958</v>
       </c>
       <c r="L7">
-        <v>-0.008998602952557701</v>
+        <v>-0.0052148936573687</v>
       </c>
       <c r="M7">
-        <v>-0.0002659132595577</v>
+        <v>0.0024450063182123</v>
       </c>
       <c r="N7">
-        <v>-12.2314430130707</v>
+        <v>-5.04621378538567</v>
       </c>
       <c r="O7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" t="s">
         <v>42</v>
@@ -1068,13 +1068,13 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.988194283109269</v>
+        <v>0.616266013019638</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.92</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1083,22 +1083,22 @@
         <v>1.825</v>
       </c>
       <c r="K8">
-        <v>-0.146301795580111</v>
+        <v>-0.0147063914469886</v>
       </c>
       <c r="L8">
-        <v>-0.211536071433998</v>
+        <v>-0.0766615733292268</v>
       </c>
       <c r="M8">
-        <v>-0.0476448569471951</v>
+        <v>0.0312613759518368</v>
       </c>
       <c r="N8">
-        <v>-8.016536744115641</v>
+        <v>-0.805829668328145</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q8">
         <v>1791973.7</v>
@@ -1139,34 +1139,34 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.142000044089607</v>
+        <v>0.9393930517583799</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.74</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.975</v>
+        <v>7.01</v>
       </c>
       <c r="K9">
-        <v>-0.0249034090909093</v>
+        <v>0.0345696435288592</v>
       </c>
       <c r="L9">
-        <v>-0.0687011639235786</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.0160089092223674</v>
+        <v>0.06763640908746001</v>
       </c>
       <c r="N9">
-        <v>-0.357038123167158</v>
+        <v>0.493147553906693</v>
       </c>
       <c r="O9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P9" t="s">
         <v>43</v>
@@ -1207,13 +1207,13 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.999923765273089</v>
+        <v>0.865596628226167</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1222,22 +1222,22 @@
         <v>2.189</v>
       </c>
       <c r="K10">
-        <v>-0.127800204220558</v>
+        <v>-0.0429747366375072</v>
       </c>
       <c r="L10">
-        <v>-0.236109898339057</v>
+        <v>-0.0966845265566293</v>
       </c>
       <c r="M10">
-        <v>-0.0948469345376764</v>
+        <v>0.0163337430982314</v>
       </c>
       <c r="N10">
-        <v>-5.83829165009402</v>
+        <v>-1.96321318581577</v>
       </c>
       <c r="O10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q10">
         <v>1791973.7</v>
@@ -1272,43 +1272,43 @@
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.947705868585522</v>
+        <v>0.753099597230507</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.98</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>3.415</v>
+        <v>3.4</v>
       </c>
       <c r="K11">
-        <v>-0.102887323943662</v>
+        <v>-0.046571038251366</v>
       </c>
       <c r="L11">
-        <v>-0.210775868593811</v>
+        <v>-0.154334805260826</v>
       </c>
       <c r="M11">
-        <v>-0.0079491934860515</v>
+        <v>0.06978429203126831</v>
       </c>
       <c r="N11">
-        <v>-3.01280597199595</v>
+        <v>-1.36973641915782</v>
       </c>
       <c r="O11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q11">
         <v>1791973.7</v>
@@ -1349,37 +1349,37 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.440144617020169</v>
+        <v>0.8010481567619649</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.9</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1215</v>
+        <v>0.119</v>
       </c>
       <c r="K12">
-        <v>0.000862455726092</v>
+        <v>-0.0040420020120724</v>
       </c>
       <c r="L12">
-        <v>-0.011156390207955</v>
+        <v>-0.0141574691446117</v>
       </c>
       <c r="M12">
-        <v>0.0112202515641362</v>
+        <v>0.0038883141058271</v>
       </c>
       <c r="N12">
-        <v>0.709840103779498</v>
+        <v>-3.39664034627936</v>
       </c>
       <c r="O12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q12">
         <v>1791973.7</v>
@@ -1420,37 +1420,37 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.483317636138455</v>
+        <v>0.862907462785607</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.9399999999999999</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.3</v>
+        <v>11.9</v>
       </c>
       <c r="K13">
-        <v>0.0859411764705883</v>
+        <v>-0.837535182119205</v>
       </c>
       <c r="L13">
-        <v>-1.47439898256216</v>
+        <v>-2.14583942272906</v>
       </c>
       <c r="M13">
-        <v>1.59207631915368</v>
+        <v>0.405154990770867</v>
       </c>
       <c r="N13">
-        <v>0.7605413846954719</v>
+        <v>-7.03811077411097</v>
       </c>
       <c r="O13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q13">
         <v>1791973.7</v>
@@ -1491,13 +1491,13 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.129716819433888</v>
+        <v>0.223617819014167</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.577464788732394</v>
+        <v>0.591549295774648</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1506,22 +1506,22 @@
         <v>0.31</v>
       </c>
       <c r="K14">
-        <v>-0.0064236721772775</v>
+        <v>-0.0036091897233201</v>
       </c>
       <c r="L14">
-        <v>-0.016964662776268</v>
+        <v>-0.0137353948735062</v>
       </c>
       <c r="M14">
-        <v>0.0019229055593768</v>
+        <v>0.0041746314394842</v>
       </c>
       <c r="N14">
-        <v>-2.07215231525082</v>
+        <v>-1.16425474945812</v>
       </c>
       <c r="O14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q14">
         <v>1791973.7</v>
@@ -1562,37 +1562,37 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.996117914564226</v>
+        <v>0.999410503281565</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.971698113207547</v>
+        <v>0.953271028037383</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.24</v>
+        <v>6.67</v>
       </c>
       <c r="K15">
-        <v>0.184828727131179</v>
+        <v>0.23431365289246</v>
       </c>
       <c r="L15">
-        <v>0.08294118449345141</v>
+        <v>0.118505540603584</v>
       </c>
       <c r="M15">
-        <v>0.314594818452064</v>
+        <v>0.343219542657419</v>
       </c>
       <c r="N15">
-        <v>2.96199883223044</v>
+        <v>3.51294831922729</v>
       </c>
       <c r="O15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q15">
         <v>1791973.7</v>
@@ -1633,13 +1633,13 @@
         <v>36</v>
       </c>
       <c r="F16">
-        <v>0.0484968845457638</v>
+        <v>0.120634635343124</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.420560747663551</v>
+        <v>0.398148148148148</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1648,22 +1648,22 @@
         <v>0.029</v>
       </c>
       <c r="K16">
-        <v>0.0006313742437337</v>
+        <v>0.0003975879202477</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>-0.000136015668332</v>
       </c>
       <c r="M16">
-        <v>0.0013173392583268</v>
+        <v>0.0009955923861139</v>
       </c>
       <c r="N16">
-        <v>2.17715256459929</v>
+        <v>1.37099282844043</v>
       </c>
       <c r="O16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q16">
         <v>1791973.7</v>
@@ -1704,37 +1704,37 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.380968711657813</v>
+        <v>0.393559348936164</v>
       </c>
       <c r="G17">
-        <v>0.0280373831775701</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="H17">
-        <v>0.785046728971963</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="K17">
-        <v>1.42843175596402</v>
+        <v>1.37232398609012</v>
       </c>
       <c r="L17">
-        <v>-11.2303633731787</v>
+        <v>-9.442797419333459</v>
       </c>
       <c r="M17">
-        <v>9.570232667438651</v>
+        <v>10.0556457731015</v>
       </c>
       <c r="N17">
-        <v>0.396786598878895</v>
+        <v>0.418391459173817</v>
       </c>
       <c r="O17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q17">
         <v>1791973.7</v>
@@ -1772,40 +1772,40 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18">
-        <v>0.957187718230434</v>
+        <v>0.971408334517568</v>
       </c>
       <c r="G18">
-        <v>0.09803921568627449</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="H18">
-        <v>0.911764705882353</v>
+        <v>0.893203883495146</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.165408011479781</v>
+        <v>0.163034256879262</v>
       </c>
       <c r="K18">
-        <v>-0.0046872554972379</v>
+        <v>-0.0054356767939073</v>
       </c>
       <c r="L18">
-        <v>-0.0112943649730454</v>
+        <v>-0.0130087508977068</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>-2.83375361042347</v>
+        <v>-3.33407033463697</v>
       </c>
       <c r="O18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q18">
         <v>1791973.7</v>
@@ -1846,37 +1846,37 @@
         <v>36</v>
       </c>
       <c r="F19">
-        <v>0.918525423640615</v>
+        <v>0.986839561984479</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.588785046728972</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.039</v>
+        <v>0.0385</v>
       </c>
       <c r="K19">
-        <v>-0.000833904109589</v>
+        <v>-0.0014356485966946</v>
       </c>
       <c r="L19">
-        <v>-0.0020026476922105</v>
+        <v>-0.0027462879316213</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-0.0004444809262749</v>
       </c>
       <c r="N19">
-        <v>-2.13821566561293</v>
+        <v>-3.7289573940121</v>
       </c>
       <c r="O19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q19">
         <v>1791973.7</v>
@@ -1917,37 +1917,37 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>0.93069674716984</v>
+        <v>0.744940094429446</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.897196261682243</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.8</v>
+        <v>1.815</v>
       </c>
       <c r="K20">
-        <v>-0.021100365630713</v>
+        <v>-0.0108365754590638</v>
       </c>
       <c r="L20">
-        <v>-0.0488964754751373</v>
+        <v>-0.034771870497529</v>
       </c>
       <c r="M20">
-        <v>0.0022357204974441</v>
+        <v>0.0117428837830712</v>
       </c>
       <c r="N20">
-        <v>-1.17224253503961</v>
+        <v>-0.597056499121971</v>
       </c>
       <c r="O20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q20">
         <v>1791973.7</v>
@@ -1988,37 +1988,37 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.035532027186813</v>
+        <v>0.234423480017084</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.594339622641509</v>
+        <v>0.626168224299065</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7</v>
+        <v>7.02</v>
       </c>
       <c r="K21">
-        <v>-0.0140914351851851</v>
+        <v>-0.0057565011820331</v>
       </c>
       <c r="L21">
-        <v>-0.0274390317710559</v>
+        <v>-0.0200674195275734</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.0075314044671271</v>
       </c>
       <c r="N21">
-        <v>-0.201306216931216</v>
+        <v>-0.08200144133950291</v>
       </c>
       <c r="O21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q21">
         <v>1791973.7</v>
@@ -2056,37 +2056,37 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.9953132151712279</v>
+        <v>0.910951511487179</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.953271028037383</v>
+        <v>0.935185185185185</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2.2</v>
+        <v>2.206</v>
       </c>
       <c r="K22">
-        <v>-0.0423862194016318</v>
+        <v>-0.023273241058744</v>
       </c>
       <c r="L22">
-        <v>-0.0690975486696306</v>
+        <v>-0.0456552957598131</v>
       </c>
       <c r="M22">
-        <v>-0.0192047566990717</v>
+        <v>0.0041064293456552</v>
       </c>
       <c r="N22">
-        <v>-1.92664633643781</v>
+        <v>-1.05499732813889</v>
       </c>
       <c r="O22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q22">
         <v>1791973.7</v>
@@ -2127,37 +2127,37 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.973411744571131</v>
+        <v>0.996475092883478</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.94392523364486</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3.45</v>
+        <v>3.43</v>
       </c>
       <c r="K23">
-        <v>-0.03973708068903</v>
+        <v>-0.0483639660949519</v>
       </c>
       <c r="L23">
-        <v>-0.0650598104497682</v>
+        <v>-0.0729572796084612</v>
       </c>
       <c r="M23">
-        <v>-0.004917716526608</v>
+        <v>-0.0179241971015566</v>
       </c>
       <c r="N23">
-        <v>-1.15179944026174</v>
+        <v>-1.41002816603358</v>
       </c>
       <c r="O23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P23" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q23">
         <v>1791973.7</v>
@@ -2198,37 +2198,37 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.174169372766778</v>
+        <v>0.662581137199194</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.766355140186916</v>
+        <v>0.768518518518518</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.122</v>
+        <v>0.121</v>
       </c>
       <c r="K24">
-        <v>0.0019868540344515</v>
+        <v>-0.0011217475475374</v>
       </c>
       <c r="L24">
-        <v>-0.0012483610849584</v>
+        <v>-0.0037339230454574</v>
       </c>
       <c r="M24">
-        <v>0.00462614042747</v>
+        <v>0.0023117084225211</v>
       </c>
       <c r="N24">
-        <v>1.62856888069795</v>
+        <v>-0.927064088873932</v>
       </c>
       <c r="O24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P24" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="Q24">
         <v>1791973.7</v>
@@ -2269,37 +2269,37 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.73719264818668</v>
+        <v>0.947027304377325</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.94392523364486</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>14.4</v>
+        <v>13.05</v>
       </c>
       <c r="K25">
-        <v>-0.14659693877551</v>
+        <v>-0.404345018394534</v>
       </c>
       <c r="L25">
-        <v>-0.65513690491301</v>
+        <v>-0.756235182796981</v>
       </c>
       <c r="M25">
-        <v>0.287235057793195</v>
+        <v>-0.0105277712976502</v>
       </c>
       <c r="N25">
-        <v>-1.01803429705215</v>
+        <v>-3.09842925972823</v>
       </c>
       <c r="O25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P25" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="Q25">
         <v>1791973.7</v>
